--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2401696666666667</v>
+        <v>0.02802633333333333</v>
       </c>
       <c r="H2">
-        <v>0.7205090000000001</v>
+        <v>0.084079</v>
       </c>
       <c r="I2">
-        <v>0.4634326908604883</v>
+        <v>0.09156020089470454</v>
       </c>
       <c r="J2">
-        <v>0.4634326908604883</v>
+        <v>0.09156020089470451</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N2">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O2">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P2">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q2">
-        <v>53.6146919124788</v>
+        <v>0.3845148659608889</v>
       </c>
       <c r="R2">
-        <v>482.5322272123091</v>
+        <v>3.460633793648</v>
       </c>
       <c r="S2">
-        <v>0.4413731079886422</v>
+        <v>0.05049579997109815</v>
       </c>
       <c r="T2">
-        <v>0.4413731079886423</v>
+        <v>0.05049579997109812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2401696666666667</v>
+        <v>0.02802633333333333</v>
       </c>
       <c r="H3">
-        <v>0.7205090000000001</v>
+        <v>0.084079</v>
       </c>
       <c r="I3">
-        <v>0.4634326908604883</v>
+        <v>0.09156020089470454</v>
       </c>
       <c r="J3">
-        <v>0.4634326908604883</v>
+        <v>0.09156020089470451</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P3">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q3">
-        <v>1.028114546408556</v>
+        <v>0.1199746886541111</v>
       </c>
       <c r="R3">
-        <v>9.253030917677</v>
+        <v>1.079772197887</v>
       </c>
       <c r="S3">
-        <v>0.008463764250616904</v>
+        <v>0.01575548415984777</v>
       </c>
       <c r="T3">
-        <v>0.008463764250616908</v>
+        <v>0.01575548415984776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2401696666666667</v>
+        <v>0.02802633333333333</v>
       </c>
       <c r="H4">
-        <v>0.7205090000000001</v>
+        <v>0.084079</v>
       </c>
       <c r="I4">
-        <v>0.4634326908604883</v>
+        <v>0.09156020089470454</v>
       </c>
       <c r="J4">
-        <v>0.4634326908604883</v>
+        <v>0.09156020089470451</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q4">
-        <v>1.651517986668778</v>
+        <v>0.1927220628765555</v>
       </c>
       <c r="R4">
-        <v>14.863661880019</v>
+        <v>1.734498565889</v>
       </c>
       <c r="S4">
-        <v>0.01359581862122916</v>
+        <v>0.02530891676375864</v>
       </c>
       <c r="T4">
-        <v>0.01359581862122916</v>
+        <v>0.02530891676375863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.771172</v>
       </c>
       <c r="I5">
-        <v>0.4960192240156117</v>
+        <v>0.8397895222870286</v>
       </c>
       <c r="J5">
-        <v>0.4960192240156118</v>
+        <v>0.8397895222870285</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N5">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O5">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P5">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q5">
-        <v>57.38463945839689</v>
+        <v>3.526767661518222</v>
       </c>
       <c r="R5">
-        <v>516.461755125572</v>
+        <v>31.740908953664</v>
       </c>
       <c r="S5">
-        <v>0.4724085090315556</v>
+        <v>0.4631471241964307</v>
       </c>
       <c r="T5">
-        <v>0.4724085090315557</v>
+        <v>0.4631471241964305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.771172</v>
       </c>
       <c r="I6">
-        <v>0.4960192240156117</v>
+        <v>0.8397895222870286</v>
       </c>
       <c r="J6">
-        <v>0.4960192240156118</v>
+        <v>0.8397895222870285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P6">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q6">
         <v>1.100407005301778</v>
@@ -818,10 +818,10 @@
         <v>9.903663047715998</v>
       </c>
       <c r="S6">
-        <v>0.00905889864620253</v>
+        <v>0.1445091905293607</v>
       </c>
       <c r="T6">
-        <v>0.009058898646202532</v>
+        <v>0.1445091905293607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.771172</v>
       </c>
       <c r="I7">
-        <v>0.4960192240156117</v>
+        <v>0.8397895222870286</v>
       </c>
       <c r="J7">
-        <v>0.4960192240156118</v>
+        <v>0.8397895222870285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>20.629391</v>
       </c>
       <c r="O7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q7">
         <v>1.767645412916889</v>
@@ -880,10 +880,10 @@
         <v>15.908808716252</v>
       </c>
       <c r="S7">
-        <v>0.01455181633785356</v>
+        <v>0.2321332075612373</v>
       </c>
       <c r="T7">
-        <v>0.01455181633785356</v>
+        <v>0.2321332075612373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.063041</v>
       </c>
       <c r="I8">
-        <v>0.04054808512389996</v>
+        <v>0.06865027681826696</v>
       </c>
       <c r="J8">
-        <v>0.04054808512389996</v>
+        <v>0.06865027681826695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N8">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O8">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P8">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q8">
-        <v>4.691022309026779</v>
+        <v>0.2883026875324445</v>
       </c>
       <c r="R8">
-        <v>42.21920078124101</v>
+        <v>2.594724187792</v>
       </c>
       <c r="S8">
-        <v>0.0386179799290668</v>
+        <v>0.03786088947273395</v>
       </c>
       <c r="T8">
-        <v>0.03861797992906681</v>
+        <v>0.03786088947273394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.063041</v>
       </c>
       <c r="I9">
-        <v>0.04054808512389996</v>
+        <v>0.06865027681826696</v>
       </c>
       <c r="J9">
-        <v>0.04054808512389996</v>
+        <v>0.06865027681826695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>12.842353</v>
       </c>
       <c r="O9">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P9">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q9">
         <v>0.08995497505255555</v>
@@ -1004,10 +1004,10 @@
         <v>0.809594775473</v>
       </c>
       <c r="S9">
-        <v>0.0007405378171863783</v>
+        <v>0.01181319326967451</v>
       </c>
       <c r="T9">
-        <v>0.0007405378171863784</v>
+        <v>0.0118131932696745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.063041</v>
       </c>
       <c r="I10">
-        <v>0.04054808512389996</v>
+        <v>0.06865027681826696</v>
       </c>
       <c r="J10">
-        <v>0.04054808512389996</v>
+        <v>0.06865027681826695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>20.629391</v>
       </c>
       <c r="O10">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P10">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q10">
         <v>0.1444997153367778</v>
@@ -1066,10 +1066,10 @@
         <v>1.300497438031</v>
       </c>
       <c r="S10">
-        <v>0.001189567377646785</v>
+        <v>0.01897619407585852</v>
       </c>
       <c r="T10">
-        <v>0.001189567377646785</v>
+        <v>0.01897619407585851</v>
       </c>
     </row>
   </sheetData>
